--- a/data/file/01入职前诚信级别批量查询模板.xlsx
+++ b/data/file/01入职前诚信级别批量查询模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>VER:1.0.1</t>
   </si>
@@ -58,10 +58,28 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>431225199304130294</t>
-  </si>
-  <si>
-    <t>431225199304130358</t>
+    <t>440101198803123654</t>
+  </si>
+  <si>
+    <t>431226199009250150</t>
+  </si>
+  <si>
+    <t>431226199009250177</t>
+  </si>
+  <si>
+    <t>431226199009250193</t>
+  </si>
+  <si>
+    <t>431225199212061818</t>
+  </si>
+  <si>
+    <t>431226199009250134</t>
+  </si>
+  <si>
+    <t>3213</t>
+  </si>
+  <si>
+    <t>3123213</t>
   </si>
   <si>
     <t>End Mark(结束标记，勿删除)</t>
@@ -79,11 +97,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +142,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -133,6 +162,103 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -143,137 +269,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,61 +317,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,121 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,21 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -531,7 +545,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,11 +567,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,16 +578,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,155 +597,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -771,16 +800,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1131,13 +1175,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" customWidth="1"/>
@@ -1186,7 +1230,7 @@
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1200,25 +1244,95 @@
       <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
     </row>
-    <row r="7" ht="102" customHeight="1" spans="1:4">
-      <c r="A7" s="13" t="s">
+    <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" ht="102" customHeight="1" spans="1:4">
+      <c r="A12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -1228,11 +1342,11 @@
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C4:C9">
       <formula1>"身份证,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1241,4 +1355,22 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="2" master="">
+    <arrUserId title="区域2" rangeCreator="" othersAccessPermission="edit"/>
+    <arrUserId title="区域2_1" rangeCreator="" othersAccessPermission="edit"/>
+  </rangeList>
+</allowEditUser>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>